--- a/biology/Botanique/Forêt_sacrée_Vazoun/Forêt_sacrée_Vazoun.xlsx
+++ b/biology/Botanique/Forêt_sacrée_Vazoun/Forêt_sacrée_Vazoun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_Vazoun</t>
+          <t>Forêt_sacrée_Vazoun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Vazoun est une forêt sacrée du Bénin situé dans la commune d'Adjohoun. C'est l'une des nombreuses forêts sacrées présentes dans le sud du pays, en pays vaudou. Elle constitue un élément important dans l'arène des patrimoines naturels présents dans la vallée de l'Ouémé[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Vazoun est une forêt sacrée du Bénin situé dans la commune d'Adjohoun. C'est l'une des nombreuses forêts sacrées présentes dans le sud du pays, en pays vaudou. Elle constitue un élément important dans l'arène des patrimoines naturels présents dans la vallée de l'Ouémé. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_Vazoun</t>
+          <t>Forêt_sacrée_Vazoun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encore appelée Yèssikpèzoun[1], la forêt sacrée Vazou se trouve dans le village de Gla, Arrondissement de Démè, Commune d'Adjohoun, Département de l'Ouémé. C'est une forêt qui est étendue d'espace vert composée de grands comme de petits arbres. Elle s'étend sur une superficie évaluée de un à deux hectares.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encore appelée Yèssikpèzoun, la forêt sacrée Vazou se trouve dans le village de Gla, Arrondissement de Démè, Commune d'Adjohoun, Département de l'Ouémé. C'est une forêt qui est étendue d'espace vert composée de grands comme de petits arbres. Elle s'étend sur une superficie évaluée de un à deux hectares.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_Vazoun</t>
+          <t>Forêt_sacrée_Vazoun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette forêt abrite l'autel de la divinité Va ou Yèssikpè. Chaque année, il est organisé des cérémonies d'hommage[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette forêt abrite l'autel de la divinité Va ou Yèssikpè. Chaque année, il est organisé des cérémonies d'hommage.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_Vazoun</t>
+          <t>Forêt_sacrée_Vazoun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La composition floristique de cette forêt est diversifiée[2]. C'est un support pédagogique dans la connaissance de l'écosystème local  d'Adjohoun en général. En témoigne la présence de nombreuses espèces de plantes médicinales pour la médecine traditionnelle africaine dont : Atawètin, Yèdètin, Ganwoutin, Woutin, Houssoutin, Kpatin, Hysope africaine, Dadatin. On y trouve une diversité d'animaux[3].
-La forêt de Vazoun réunit les bonnes conditions structurales, de diversité floristique, de ressource alimentaire et d’humidité[4]. Mais elle est très peu fréquentée par le singe à ventre rouge[2],[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La composition floristique de cette forêt est diversifiée. C'est un support pédagogique dans la connaissance de l'écosystème local  d'Adjohoun en général. En témoigne la présence de nombreuses espèces de plantes médicinales pour la médecine traditionnelle africaine dont : Atawètin, Yèdètin, Ganwoutin, Woutin, Houssoutin, Kpatin, Hysope africaine, Dadatin. On y trouve une diversité d'animaux.
+La forêt de Vazoun réunit les bonnes conditions structurales, de diversité floristique, de ressource alimentaire et d’humidité. Mais elle est très peu fréquentée par le singe à ventre rouge,. 
 </t>
         </is>
       </c>
